--- a/dendy_junior_remastered/pcb/dendy_junior_II/manual/component_list_rev2.7.0_complete.xlsx
+++ b/dendy_junior_remastered/pcb/dendy_junior_II/manual/component_list_rev2.7.0_complete.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\documents\GitHub\dendy_junior_remastered\dendy_junior_remastered\schematic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\documents\GitHub\dendy_junior_remastered\dendy_junior_remastered\pcb\dendy_junior_II\manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="component_list_rev2.7.0_final" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="154">
   <si>
     <t>#</t>
   </si>
@@ -390,9 +390,6 @@
     <t>Описание</t>
   </si>
   <si>
-    <t>Если проблемы с запуском то лучше убрать</t>
-  </si>
-  <si>
     <t>18pF</t>
   </si>
   <si>
@@ -478,6 +475,12 @@
   </si>
   <si>
     <t>Конденсатор для линии RESET</t>
+  </si>
+  <si>
+    <t>R51 можно не припаивать</t>
+  </si>
+  <si>
+    <t>C49 можно не припаивать</t>
   </si>
 </sst>
 </file>
@@ -979,7 +982,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -990,6 +993,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1057,7 +1061,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:F59" totalsRowCount="1">
-  <autoFilter ref="A1:F59"/>
+  <autoFilter ref="A1:F58"/>
   <tableColumns count="6">
     <tableColumn id="1" name="#" totalsRowFunction="count"/>
     <tableColumn id="2" name="Метка"/>
@@ -1336,7 +1340,7 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1403,7 +1407,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1457,7 +1461,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1528,7 +1532,7 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1598,8 +1602,8 @@
       <c r="E14" s="2">
         <v>1</v>
       </c>
-      <c r="F14" t="s">
-        <v>123</v>
+      <c r="F14" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1610,7 +1614,7 @@
         <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -1624,7 +1628,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C16" t="s">
         <v>35</v>
@@ -1636,7 +1640,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1650,13 +1654,13 @@
         <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1681,13 +1685,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E19" s="2">
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1704,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1721,7 +1725,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1758,7 +1762,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1778,7 +1782,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1798,7 +1802,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1818,7 +1822,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1838,7 +1842,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1846,7 +1850,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C28" t="s">
         <v>61</v>
@@ -1858,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1895,7 +1899,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1915,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -2070,6 +2074,9 @@
       <c r="E40" s="2">
         <v>6</v>
       </c>
+      <c r="F40" s="4" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
@@ -2164,13 +2171,13 @@
         <v>100</v>
       </c>
       <c r="D46" t="s">
+        <v>138</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
         <v>139</v>
-      </c>
-      <c r="E46" s="2">
-        <v>1</v>
-      </c>
-      <c r="F46" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2187,7 +2194,7 @@
         <v>2</v>
       </c>
       <c r="F47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2204,7 +2211,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2221,7 +2228,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2260,13 +2267,13 @@
         <v>111</v>
       </c>
       <c r="D52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E52" s="2">
         <v>2</v>
       </c>
       <c r="F52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2314,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2331,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2365,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
